--- a/docs/Equilibrage-artefacts.xlsx
+++ b/docs/Equilibrage-artefacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leandre\Documents\GitHub\praxis\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D536984B-7948-44BD-AF57-032DBDAA0A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5BC1ED-C555-454A-B94E-E4AD3C4FB91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,8 +123,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -327,14 +327,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -399,7 +399,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="0.0"/>
+      <numFmt numFmtId="164" formatCode="0.0"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -443,51 +443,11 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
+        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -500,11 +460,29 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -516,12 +494,21 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -538,13 +525,13 @@
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom/>
       </border>
     </dxf>
@@ -574,6 +561,15 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -581,22 +577,26 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.0%"/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -692,30 +692,30 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -744,7 +744,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6CAAC7C8-8621-4A45-A8FA-2D45E7623407}" name="Tableau1" displayName="Tableau1" ref="A1:E19" totalsRowCount="1" headerRowDxfId="26" totalsRowDxfId="25" headerRowBorderDxfId="23" tableBorderDxfId="24" totalsRowBorderDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6CAAC7C8-8621-4A45-A8FA-2D45E7623407}" name="Tableau1" displayName="Tableau1" ref="A1:E19" totalsRowCount="1" headerRowDxfId="26" totalsRowDxfId="23" headerRowBorderDxfId="25" tableBorderDxfId="24" totalsRowBorderDxfId="22">
   <autoFilter ref="A1:E18" xr:uid="{6CAAC7C8-8621-4A45-A8FA-2D45E7623407}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E18">
     <sortCondition ref="B1:B18"/>
@@ -765,17 +765,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{14682B95-9C1E-4B50-A631-FD16189E7AFD}" name="Tableau3" displayName="Tableau3" ref="H1:K6" totalsRowCount="1" headerRowDxfId="12" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{14682B95-9C1E-4B50-A631-FD16189E7AFD}" name="Tableau3" displayName="Tableau3" ref="H1:K6" totalsRowCount="1" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
   <autoFilter ref="H1:K5" xr:uid="{14682B95-9C1E-4B50-A631-FD16189E7AFD}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{B5A245B6-FA32-448B-B9F2-DF8DA33C6BBA}" name="xValeur" totalsRowLabel="Total" dataDxfId="13" totalsRowDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{F90A1062-DE85-4E26-95A6-433C4D79F41D}" name="xNombre" totalsRowFunction="sum" dataDxfId="9" totalsRowDxfId="7">
+    <tableColumn id="1" xr3:uid="{B5A245B6-FA32-448B-B9F2-DF8DA33C6BBA}" name="xValeur" totalsRowLabel="Total" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{F90A1062-DE85-4E26-95A6-433C4D79F41D}" name="xNombre" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula>SUMIF(Tableau1[Valeur],Tableau3[[#This Row],[xValeur]],Tableau1[Nombre])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{339755BA-B904-420E-8D03-0BD2921BD4BD}" name="xCummul" totalsRowFunction="sum" dataDxfId="11" totalsRowDxfId="6">
+    <tableColumn id="2" xr3:uid="{339755BA-B904-420E-8D03-0BD2921BD4BD}" name="xCummul" totalsRowFunction="sum" dataDxfId="8" totalsRowDxfId="7">
       <calculatedColumnFormula>SUMIF(Tableau1[Valeur],Tableau3[[#This Row],[xValeur]],Tableau1[Cumul])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{A3F67A6B-7B59-4AAF-8701-20B6B41639F3}" name="xProba" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="5" dataCellStyle="Pourcentage">
+    <tableColumn id="3" xr3:uid="{A3F67A6B-7B59-4AAF-8701-20B6B41639F3}" name="xProba" totalsRowFunction="sum" dataDxfId="6" totalsRowDxfId="5" dataCellStyle="Pourcentage">
       <calculatedColumnFormula>SUMIF(Tableau1[Valeur],Tableau3[[#This Row],[xValeur]],Tableau1[Proba])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1049,7 +1049,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,15 +1115,15 @@
       </c>
       <c r="I2" s="2">
         <f>SUMIF(Tableau1[Valeur],Tableau3[[#This Row],[xValeur]],Tableau1[Nombre])</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J2" s="1">
         <f>SUMIF(Tableau1[Valeur],Tableau3[[#This Row],[xValeur]],Tableau1[Cumul])</f>
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K2" s="14">
         <f>SUMIF(Tableau1[Valeur],Tableau3[[#This Row],[xValeur]],Tableau1[Proba])</f>
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1149,15 +1149,15 @@
       </c>
       <c r="I3" s="2">
         <f>SUMIF(Tableau1[Valeur],Tableau3[[#This Row],[xValeur]],Tableau1[Nombre])</f>
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1">
         <f>SUMIF(Tableau1[Valeur],Tableau3[[#This Row],[xValeur]],Tableau1[Cumul])</f>
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="K3" s="14">
         <f>SUMIF(Tableau1[Valeur],Tableau3[[#This Row],[xValeur]],Tableau1[Proba])</f>
-        <v>0.22499999999999998</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -1165,14 +1165,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1">
         <v>6</v>
       </c>
       <c r="D4" s="1">
         <f>Tableau1[[#This Row],[Valeur]]*Tableau1[[#This Row],[Nombre]]</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E4" s="13">
         <f>Tableau1[[#This Row],[Nombre]]/Tableau1[[#Totals],[Nombre]]</f>
@@ -1199,14 +1199,14 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1">
         <v>6</v>
       </c>
       <c r="D5" s="1">
         <f>Tableau1[[#This Row],[Valeur]]*Tableau1[[#This Row],[Nombre]]</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E5" s="13">
         <f>Tableau1[[#This Row],[Nombre]]/Tableau1[[#Totals],[Nombre]]</f>
@@ -1255,11 +1255,11 @@
       </c>
       <c r="J6" s="7">
         <f>SUBTOTAL(109,Tableau3[xCummul])</f>
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="K6" s="16">
         <f>SUBTOTAL(109,Tableau3[xProba])</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B19" s="10">
         <f>SUBTOTAL(101,Tableau1[Valeur])</f>
-        <v>5.2941176470588234</v>
+        <v>5.4117647058823533</v>
       </c>
       <c r="C19" s="1">
         <f>SUBTOTAL(109,Tableau1[Nombre])</f>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="D19" s="1">
         <f>SUBTOTAL(109,Tableau1[Cumul])</f>
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="E19" s="11">
         <f>SUBTOTAL(109,Tableau1[Proba])</f>

--- a/docs/Equilibrage-artefacts.xlsx
+++ b/docs/Equilibrage-artefacts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leandre\Documents\GitHub\praxis\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5BC1ED-C555-454A-B94E-E4AD3C4FB91C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A37DD2F-93B4-442F-A5AD-6BD99D7545C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -765,8 +765,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{14682B95-9C1E-4B50-A631-FD16189E7AFD}" name="Tableau3" displayName="Tableau3" ref="H1:K6" totalsRowCount="1" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
-  <autoFilter ref="H1:K5" xr:uid="{14682B95-9C1E-4B50-A631-FD16189E7AFD}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{14682B95-9C1E-4B50-A631-FD16189E7AFD}" name="Tableau3" displayName="Tableau3" ref="G1:J6" totalsRowCount="1" headerRowDxfId="16" headerRowBorderDxfId="15" tableBorderDxfId="14" totalsRowBorderDxfId="13">
+  <autoFilter ref="G1:J5" xr:uid="{14682B95-9C1E-4B50-A631-FD16189E7AFD}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{B5A245B6-FA32-448B-B9F2-DF8DA33C6BBA}" name="xValeur" totalsRowLabel="Total" dataDxfId="12" totalsRowDxfId="11"/>
     <tableColumn id="4" xr3:uid="{F90A1062-DE85-4E26-95A6-433C4D79F41D}" name="xNombre" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9">
@@ -1046,23 +1046,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" customWidth="1"/>
-    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="3.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1078,20 +1079,20 @@
       <c r="E1" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="H1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1099,34 +1100,34 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1">
         <f>Tableau1[[#This Row],[Valeur]]*Tableau1[[#This Row],[Nombre]]</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" s="13">
         <f>Tableau1[[#This Row],[Nombre]]/Tableau1[[#Totals],[Nombre]]</f>
-        <v>7.4999999999999997E-2</v>
+        <v>8.5365853658536592E-2</v>
       </c>
       <c r="F2" s="12"/>
+      <c r="G2" s="2">
+        <v>1</v>
+      </c>
       <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
         <f>SUMIF(Tableau1[Valeur],Tableau3[[#This Row],[xValeur]],Tableau1[Nombre])</f>
-        <v>12</v>
-      </c>
-      <c r="J2" s="1">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1">
         <f>SUMIF(Tableau1[Valeur],Tableau3[[#This Row],[xValeur]],Tableau1[Cumul])</f>
-        <v>12</v>
-      </c>
-      <c r="K2" s="14">
+        <v>14</v>
+      </c>
+      <c r="J2" s="14">
         <f>SUMIF(Tableau1[Valeur],Tableau3[[#This Row],[xValeur]],Tableau1[Proba])</f>
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.17073170731707318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1134,33 +1135,33 @@
         <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
         <f>Tableau1[[#This Row],[Valeur]]*Tableau1[[#This Row],[Nombre]]</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" s="13">
         <f>Tableau1[[#This Row],[Nombre]]/Tableau1[[#Totals],[Nombre]]</f>
-        <v>7.4999999999999997E-2</v>
+        <v>8.5365853658536592E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2</v>
       </c>
       <c r="H3" s="2">
-        <v>2</v>
-      </c>
-      <c r="I3" s="2">
         <f>SUMIF(Tableau1[Valeur],Tableau3[[#This Row],[xValeur]],Tableau1[Nombre])</f>
         <v>30</v>
       </c>
-      <c r="J3" s="1">
+      <c r="I3" s="1">
         <f>SUMIF(Tableau1[Valeur],Tableau3[[#This Row],[xValeur]],Tableau1[Cumul])</f>
         <v>60</v>
       </c>
-      <c r="K3" s="14">
+      <c r="J3" s="14">
         <f>SUMIF(Tableau1[Valeur],Tableau3[[#This Row],[xValeur]],Tableau1[Proba])</f>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.36585365853658536</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1176,25 +1177,25 @@
       </c>
       <c r="E4" s="13">
         <f>Tableau1[[#This Row],[Nombre]]/Tableau1[[#Totals],[Nombre]]</f>
-        <v>7.4999999999999997E-2</v>
+        <v>7.3170731707317069E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>5</v>
       </c>
       <c r="H4" s="2">
-        <v>5</v>
-      </c>
-      <c r="I4" s="2">
         <f>SUMIF(Tableau1[Valeur],Tableau3[[#This Row],[xValeur]],Tableau1[Nombre])</f>
         <v>20</v>
       </c>
-      <c r="J4" s="1">
+      <c r="I4" s="1">
         <f>SUMIF(Tableau1[Valeur],Tableau3[[#This Row],[xValeur]],Tableau1[Cumul])</f>
         <v>100</v>
       </c>
-      <c r="K4" s="14">
+      <c r="J4" s="14">
         <f>SUMIF(Tableau1[Valeur],Tableau3[[#This Row],[xValeur]],Tableau1[Proba])</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.24390243902439024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -1210,25 +1211,25 @@
       </c>
       <c r="E5" s="13">
         <f>Tableau1[[#This Row],[Nombre]]/Tableau1[[#Totals],[Nombre]]</f>
-        <v>7.4999999999999997E-2</v>
+        <v>7.3170731707317069E-2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>10</v>
       </c>
       <c r="H5" s="9">
-        <v>10</v>
-      </c>
-      <c r="I5" s="9">
         <f>SUMIF(Tableau1[Valeur],Tableau3[[#This Row],[xValeur]],Tableau1[Nombre])</f>
         <v>18</v>
       </c>
-      <c r="J5" s="1">
+      <c r="I5" s="1">
         <f>SUMIF(Tableau1[Valeur],Tableau3[[#This Row],[xValeur]],Tableau1[Cumul])</f>
         <v>180</v>
       </c>
-      <c r="K5" s="15">
+      <c r="J5" s="15">
         <f>SUMIF(Tableau1[Valeur],Tableau3[[#This Row],[xValeur]],Tableau1[Proba])</f>
-        <v>0.22500000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.21951219512195122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1244,25 +1245,25 @@
       </c>
       <c r="E6" s="13">
         <f>Tableau1[[#This Row],[Nombre]]/Tableau1[[#Totals],[Nombre]]</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="H6" s="9" t="s">
+        <v>7.3170731707317069E-2</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="8">
+      <c r="H6" s="8">
         <f>SUBTOTAL(109,Tableau3[xNombre])</f>
-        <v>80</v>
-      </c>
-      <c r="J6" s="7">
+        <v>82</v>
+      </c>
+      <c r="I6" s="7">
         <f>SUBTOTAL(109,Tableau3[xCummul])</f>
-        <v>352</v>
-      </c>
-      <c r="K6" s="16">
+        <v>354</v>
+      </c>
+      <c r="J6" s="16">
         <f>SUBTOTAL(109,Tableau3[xProba])</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1278,10 +1279,10 @@
       </c>
       <c r="E7" s="13">
         <f>Tableau1[[#This Row],[Nombre]]/Tableau1[[#Totals],[Nombre]]</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>7.3170731707317069E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1297,10 +1298,10 @@
       </c>
       <c r="E8" s="13">
         <f>Tableau1[[#This Row],[Nombre]]/Tableau1[[#Totals],[Nombre]]</f>
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>7.3170731707317069E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1316,10 +1317,10 @@
       </c>
       <c r="E9" s="13">
         <f>Tableau1[[#This Row],[Nombre]]/Tableau1[[#Totals],[Nombre]]</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6.097560975609756E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1335,10 +1336,10 @@
       </c>
       <c r="E10" s="13">
         <f>Tableau1[[#This Row],[Nombre]]/Tableau1[[#Totals],[Nombre]]</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6.097560975609756E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1354,10 +1355,10 @@
       </c>
       <c r="E11" s="13">
         <f>Tableau1[[#This Row],[Nombre]]/Tableau1[[#Totals],[Nombre]]</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6.097560975609756E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1373,10 +1374,10 @@
       </c>
       <c r="E12" s="13">
         <f>Tableau1[[#This Row],[Nombre]]/Tableau1[[#Totals],[Nombre]]</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6.097560975609756E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1392,10 +1393,10 @@
       </c>
       <c r="E13" s="13">
         <f>Tableau1[[#This Row],[Nombre]]/Tableau1[[#Totals],[Nombre]]</f>
-        <v>3.7499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.6585365853658534E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1411,10 +1412,10 @@
       </c>
       <c r="E14" s="13">
         <f>Tableau1[[#This Row],[Nombre]]/Tableau1[[#Totals],[Nombre]]</f>
-        <v>3.7499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.6585365853658534E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
@@ -1430,10 +1431,10 @@
       </c>
       <c r="E15" s="13">
         <f>Tableau1[[#This Row],[Nombre]]/Tableau1[[#Totals],[Nombre]]</f>
-        <v>3.7499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3.6585365853658534E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1449,7 +1450,7 @@
       </c>
       <c r="E16" s="13">
         <f>Tableau1[[#This Row],[Nombre]]/Tableau1[[#Totals],[Nombre]]</f>
-        <v>3.7499999999999999E-2</v>
+        <v>3.6585365853658534E-2</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1468,7 +1469,7 @@
       </c>
       <c r="E17" s="13">
         <f>Tableau1[[#This Row],[Nombre]]/Tableau1[[#Totals],[Nombre]]</f>
-        <v>3.7499999999999999E-2</v>
+        <v>3.6585365853658534E-2</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1487,7 +1488,7 @@
       </c>
       <c r="E18" s="13">
         <f>Tableau1[[#This Row],[Nombre]]/Tableau1[[#Totals],[Nombre]]</f>
-        <v>3.7499999999999999E-2</v>
+        <v>3.6585365853658534E-2</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1501,15 +1502,15 @@
       </c>
       <c r="C19" s="1">
         <f>SUBTOTAL(109,Tableau1[Nombre])</f>
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D19" s="1">
         <f>SUBTOTAL(109,Tableau1[Cumul])</f>
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E19" s="11">
         <f>SUBTOTAL(109,Tableau1[Proba])</f>
-        <v>0.99999999999999989</v>
+        <v>1.0000000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1527,9 +1528,10 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>